--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>10.5671098247</v>
+        <v>0.26352801244</v>
       </c>
       <c r="R2">
-        <v>95.10398842230001</v>
+        <v>2.37175211196</v>
       </c>
       <c r="S2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="T2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H3">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I3">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J3">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.54635743626</v>
+        <v>10.15468230942</v>
       </c>
       <c r="R3">
-        <v>22.91721692634</v>
+        <v>91.39214078478</v>
       </c>
       <c r="S3">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="T3">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H4">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I4">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J4">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +694,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.342175146039999</v>
+        <v>2.093139433439999</v>
       </c>
       <c r="R4">
-        <v>84.07957631435998</v>
+        <v>18.83825490096</v>
       </c>
       <c r="S4">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="T4">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H5">
+        <v>144.458134</v>
+      </c>
+      <c r="I5">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J5">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.26202</v>
+      </c>
+      <c r="N5">
+        <v>0.78606</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>12.61697342356</v>
+      </c>
+      <c r="R5">
+        <v>113.55276081204</v>
+      </c>
+      <c r="S5">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="T5">
+        <v>0.5021016855662868</v>
       </c>
     </row>
   </sheetData>
